--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>350318.616263563</v>
+        <v>352906.1813161657</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11465356.14162199</v>
+        <v>11821355.91763807</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9814017.510437302</v>
+        <v>10162932.89091066</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6560690.888344428</v>
+        <v>6388286.62078735</v>
       </c>
     </row>
     <row r="11">
@@ -668,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>225.55672289857</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>48.61383578978851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596193</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -801,7 +803,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424963</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
         <v>157.8079400398083</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>10.67714500126714</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>28.0149076090959</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +898,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>5.527580697444068</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>10.12090774188746</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -947,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>7.770085442703964</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>116.8803828974625</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>152.2679847715395</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>290.940565821523</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>136.1769805884545</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,13 +1350,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059085</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>372.26989229096</v>
+        <v>110.2139485182157</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1467,7 +1469,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I12" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1503,7 +1505,7 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3773027531635</v>
+        <v>195.3773027531633</v>
       </c>
       <c r="V12" t="n">
         <v>211.5744117368965</v>
@@ -1534,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>136.1769805884545</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,13 +1587,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059085</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,13 +1609,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9457037251325</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>40.39502321397677</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1704,7 +1706,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I15" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596193</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>65.42520756919141</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,7 +1830,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>393.9470907639073</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1901,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>40.39502321397677</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>82.85798684944075</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
@@ -2062,13 +2064,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="20">
@@ -2078,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>31.72385070910507</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2132,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>151.89512884346</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -2287,25 +2289,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>65.42520756919177</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.421695385058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>290.2164683076076</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>166.8806507775562</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2476,10 +2478,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>110.4827588140766</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>164.5078794940944</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2561,7 +2563,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>70.19621519814288</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2612,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>6.338580986754437</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>29.55479839066911</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
@@ -2767,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2792,22 +2794,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2849,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>105.1663045152868</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>19.89843046228975</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2950,7 +2952,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>148.0772376304396</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -3007,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>388.3430365919147</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -3035,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>66.26484700857036</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3086,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3190,13 +3192,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>106.9706214097038</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3241,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>153.0251390105131</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>260.0188263100671</v>
+        <v>19.89843046228975</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>57.21175205823708</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -3439,7 +3441,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3481,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>54.68688746169084</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>392.5647472501408</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>120.5614021632829</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I39" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596193</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>148.1411127632386</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>43.33938006283382</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,19 +3717,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>218.2556188417214</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>138.6189555952801</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I42" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>70.36042284486155</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -3958,13 +3960,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>220.9263373332095</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>353.8766502980249</v>
+        <v>281.8493489855649</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4053,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
         <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
-        <v>5.384931482783395</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>55.69551283691924</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>136.1769805884549</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -4192,13 +4194,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>679.7247499512512</v>
+        <v>500.9945609524819</v>
       </c>
       <c r="C2" t="n">
-        <v>269.6001592645213</v>
+        <v>90.86997026575204</v>
       </c>
       <c r="D2" t="n">
-        <v>269.6001592645213</v>
+        <v>90.86997026575204</v>
       </c>
       <c r="E2" t="n">
-        <v>269.6001592645213</v>
+        <v>90.86997026575204</v>
       </c>
       <c r="F2" t="n">
-        <v>41.76508562960205</v>
+        <v>90.86997026575204</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>90.86997026575204</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>90.86997026575204</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K2" t="n">
-        <v>812.7934917636817</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="L2" t="n">
-        <v>812.7934917636817</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M2" t="n">
-        <v>812.7934917636817</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N2" t="n">
-        <v>1209.69369432892</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O2" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4358,22 +4360,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V2" t="n">
-        <v>1473.706230480572</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="W2" t="n">
-        <v>1089.945929615741</v>
+        <v>1312.152413668881</v>
       </c>
       <c r="X2" t="n">
-        <v>1089.945929615741</v>
+        <v>1312.152413668881</v>
       </c>
       <c r="Y2" t="n">
-        <v>1089.945929615741</v>
+        <v>911.2157406169714</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.2608899736455</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936156</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922353</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L3" t="n">
-        <v>508.1659581184966</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M3" t="n">
-        <v>1025.008892784822</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.851827451147</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="O3" t="n">
-        <v>2058.694762117472</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4440,19 +4442,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>875.9304297912963</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="C4" t="n">
-        <v>704.8370573530128</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="D4" t="n">
-        <v>545.3424126759228</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="E4" t="n">
-        <v>384.4315975442423</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="F4" t="n">
-        <v>219.8004716548335</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>52.55008058037694</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4510,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1288.365834796576</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>1288.365834796576</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W4" t="n">
-        <v>1288.365834796576</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="X4" t="n">
-        <v>1288.365834796576</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="Y4" t="n">
-        <v>1063.630136185341</v>
+        <v>474.9689777942758</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47.34850047550515</v>
+        <v>876.4530309326549</v>
       </c>
       <c r="C5" t="n">
-        <v>41.76508562960205</v>
+        <v>466.328440245925</v>
       </c>
       <c r="D5" t="n">
-        <v>41.76508562960205</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J5" t="n">
         <v>295.9505570973564</v>
@@ -4571,19 +4573,19 @@
         <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M5" t="n">
-        <v>1329.636426430007</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="N5" t="n">
-        <v>1530.854701124212</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="O5" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4595,22 +4597,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1259.149751022952</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1259.149751022952</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>858.5063531919045</v>
+        <v>1687.610883649054</v>
       </c>
       <c r="Y5" t="n">
-        <v>457.5696801399946</v>
+        <v>1286.674210597144</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K6" t="n">
-        <v>508.1659581184966</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L6" t="n">
-        <v>508.1659581184966</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.008892784822</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.851827451147</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O6" t="n">
-        <v>2058.694762117472</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P6" t="n">
         <v>2058.694762117472</v>
@@ -4680,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1040.344357017661</v>
+        <v>315.5671578740656</v>
       </c>
       <c r="C7" t="n">
-        <v>1040.344357017661</v>
+        <v>315.5671578740656</v>
       </c>
       <c r="D7" t="n">
-        <v>1040.344357017661</v>
+        <v>315.5671578740656</v>
       </c>
       <c r="E7" t="n">
-        <v>1040.344357017661</v>
+        <v>315.5671578740656</v>
       </c>
       <c r="F7" t="n">
-        <v>875.7132311282519</v>
+        <v>315.5671578740656</v>
       </c>
       <c r="G7" t="n">
-        <v>708.4628400537953</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H7" t="n">
-        <v>558.8553848592519</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J7" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K7" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L7" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>2088.254281480102</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>2088.254281480102</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>2088.254281480102</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>2088.254281480102</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>1970.193288654383</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W7" t="n">
-        <v>1691.123624163257</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="X7" t="n">
-        <v>1452.77976202294</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="Y7" t="n">
-        <v>1228.044063411705</v>
+        <v>503.2668642681101</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>446.2290155365415</v>
+        <v>1020.035937023212</v>
       </c>
       <c r="C8" t="n">
-        <v>446.2290155365415</v>
+        <v>609.9113463364826</v>
       </c>
       <c r="D8" t="n">
-        <v>41.76508562960205</v>
+        <v>609.9113463364826</v>
       </c>
       <c r="E8" t="n">
-        <v>41.76508562960205</v>
+        <v>195.5711308533793</v>
       </c>
       <c r="F8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1688317915616</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L8" t="n">
-        <v>1014.011766457887</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="M8" t="n">
-        <v>1014.011766457887</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N8" t="n">
-        <v>1530.854701124212</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O8" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1473.706230480572</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V8" t="n">
-        <v>1123.868675817053</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="W8" t="n">
-        <v>740.1083749522213</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="X8" t="n">
-        <v>446.2290155365415</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="Y8" t="n">
-        <v>446.2290155365415</v>
+        <v>1430.257116687702</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K9" t="n">
-        <v>690.384199457534</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L9" t="n">
-        <v>690.384199457534</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M9" t="n">
-        <v>1025.008892784822</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N9" t="n">
-        <v>1541.851827451147</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4917,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960205</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960205</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960205</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4996,16 +4998,16 @@
         <v>777.1526093285881</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="W10" t="n">
-        <v>224.1971997769844</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="X10" t="n">
-        <v>41.76508562960205</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.76508562960205</v>
+        <v>777.1526093285881</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.76508562960205</v>
+        <v>1575.990387702721</v>
       </c>
       <c r="C11" t="n">
-        <v>41.76508562960205</v>
+        <v>1165.865797015991</v>
       </c>
       <c r="D11" t="n">
-        <v>41.76508562960205</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="E11" t="n">
-        <v>41.76508562960205</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="F11" t="n">
-        <v>41.76508562960205</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K11" t="n">
-        <v>41.76508562960205</v>
+        <v>216.5644706858343</v>
       </c>
       <c r="L11" t="n">
-        <v>558.6080202959273</v>
+        <v>733.4074053521595</v>
       </c>
       <c r="M11" t="n">
-        <v>1054.568412147452</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N11" t="n">
-        <v>1571.411346813777</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O11" t="n">
-        <v>2088.254281480102</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P11" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q11" t="n">
         <v>2088.254281480102</v>
@@ -5066,25 +5068,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T11" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U11" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V11" t="n">
-        <v>1603.135651610684</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W11" t="n">
-        <v>1219.375350745852</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X11" t="n">
-        <v>818.7319529148049</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y11" t="n">
-        <v>417.795279862895</v>
+        <v>1687.317608428192</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G12" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K12" t="n">
         <v>497.5713418949007</v>
       </c>
       <c r="L12" t="n">
-        <v>497.5713418949007</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M12" t="n">
-        <v>1014.414276561226</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N12" t="n">
-        <v>1014.414276561226</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="O12" t="n">
-        <v>1531.257211227551</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P12" t="n">
-        <v>2048.100145893876</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q12" t="n">
         <v>2088.254281480102</v>
@@ -5154,16 +5156,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.76508562960205</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="C13" t="n">
-        <v>41.76508562960205</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="D13" t="n">
-        <v>41.76508562960205</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="E13" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F13" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G13" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H13" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5233,16 +5235,16 @@
         <v>777.1526093285881</v>
       </c>
       <c r="V13" t="n">
-        <v>503.2668642681101</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="W13" t="n">
-        <v>224.1971997769844</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="X13" t="n">
-        <v>41.76508562960205</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.76508562960205</v>
+        <v>777.1526093285881</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>270.4862460146829</v>
+        <v>451.8896763163319</v>
       </c>
       <c r="C14" t="n">
-        <v>270.4862460146829</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D14" t="n">
-        <v>270.4862460146829</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E14" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F14" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G14" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H14" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L14" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="N14" t="n">
-        <v>1592.293889628578</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O14" t="n">
-        <v>2088.254281480102</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P14" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q14" t="n">
         <v>2088.254281480102</v>
@@ -5306,22 +5308,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T14" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U14" t="n">
-        <v>1866.047797426961</v>
+        <v>2047.45122772861</v>
       </c>
       <c r="V14" t="n">
-        <v>1866.047797426961</v>
+        <v>2047.45122772861</v>
       </c>
       <c r="W14" t="n">
-        <v>1482.28749656213</v>
+        <v>1663.690926863779</v>
       </c>
       <c r="X14" t="n">
-        <v>1081.644098731082</v>
+        <v>1263.047529032731</v>
       </c>
       <c r="Y14" t="n">
-        <v>680.7074256791724</v>
+        <v>862.1108559808214</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D15" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E15" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G15" t="n">
-        <v>133.2608899736458</v>
+        <v>133.2608899736455</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936156</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L15" t="n">
-        <v>558.6080202959273</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M15" t="n">
-        <v>558.6080202959273</v>
+        <v>704.723947463468</v>
       </c>
       <c r="N15" t="n">
-        <v>1075.450954962253</v>
+        <v>704.723947463468</v>
       </c>
       <c r="O15" t="n">
-        <v>1541.851827451147</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P15" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q15" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R15" t="n">
         <v>2088.254281480102</v>
@@ -5388,7 +5390,7 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U15" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V15" t="n">
         <v>1409.860069912671</v>
@@ -5400,7 +5402,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y15" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>224.1971997769844</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C16" t="n">
-        <v>224.1971997769844</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D16" t="n">
-        <v>224.1971997769844</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E16" t="n">
-        <v>224.1971997769844</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F16" t="n">
-        <v>224.1971997769844</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G16" t="n">
-        <v>224.1971997769844</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H16" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5476,10 +5478,10 @@
         <v>224.1971997769844</v>
       </c>
       <c r="X16" t="n">
-        <v>224.1971997769844</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.1971997769844</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2088.254281480102</v>
+        <v>451.8896763163319</v>
       </c>
       <c r="C17" t="n">
-        <v>1690.327927173125</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D17" t="n">
-        <v>1285.863997266186</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E17" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F17" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.450954962253</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N17" t="n">
         <v>1592.293889628578</v>
       </c>
       <c r="O17" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P17" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q17" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R17" t="n">
         <v>2088.254281480102</v>
@@ -5549,16 +5551,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V17" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.45122772861</v>
       </c>
       <c r="W17" t="n">
-        <v>2088.254281480102</v>
+        <v>1663.690926863779</v>
       </c>
       <c r="X17" t="n">
-        <v>2088.254281480102</v>
+        <v>1263.047529032731</v>
       </c>
       <c r="Y17" t="n">
-        <v>2088.254281480102</v>
+        <v>862.1108559808214</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G18" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K18" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L18" t="n">
-        <v>497.5713418949007</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M18" t="n">
-        <v>1014.414276561226</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N18" t="n">
-        <v>1531.257211227551</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O18" t="n">
-        <v>1531.257211227551</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P18" t="n">
-        <v>1738.409816796119</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q18" t="n">
         <v>2088.254281480102</v>
@@ -5628,16 +5630,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>125.4600218411584</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C19" t="n">
-        <v>125.4600218411584</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D19" t="n">
-        <v>125.4600218411584</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E19" t="n">
-        <v>125.4600218411584</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F19" t="n">
-        <v>125.4600218411584</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L19" t="n">
         <v>470.2970630371111</v>
@@ -5698,25 +5700,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T19" t="n">
-        <v>1145.223475107064</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U19" t="n">
-        <v>862.4253276531883</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V19" t="n">
-        <v>588.5395825927103</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W19" t="n">
-        <v>588.5395825927103</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X19" t="n">
-        <v>350.1957204523937</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y19" t="n">
-        <v>125.4600218411584</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>866.9064694728561</v>
+        <v>73.80937927516271</v>
       </c>
       <c r="C20" t="n">
-        <v>456.7818787861262</v>
+        <v>73.80937927516271</v>
       </c>
       <c r="D20" t="n">
-        <v>52.31794887918674</v>
+        <v>73.80937927516271</v>
       </c>
       <c r="E20" t="n">
-        <v>52.31794887918674</v>
+        <v>73.80937927516271</v>
       </c>
       <c r="F20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J20" t="n">
-        <v>306.503420346941</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K20" t="n">
-        <v>306.503420346941</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L20" t="n">
-        <v>751.3148655907485</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M20" t="n">
-        <v>1398.749482970684</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N20" t="n">
-        <v>2046.18410035062</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O20" t="n">
-        <v>2046.18410035062</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P20" t="n">
-        <v>2575.340798269772</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q20" t="n">
-        <v>2575.340798269772</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T20" t="n">
-        <v>2615.897443959337</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U20" t="n">
-        <v>2615.897443959337</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V20" t="n">
-        <v>2462.468020885135</v>
+        <v>1259.149751022951</v>
       </c>
       <c r="W20" t="n">
-        <v>2078.707720020303</v>
+        <v>875.3894501581201</v>
       </c>
       <c r="X20" t="n">
-        <v>1678.064322189256</v>
+        <v>474.7460523270726</v>
       </c>
       <c r="Y20" t="n">
-        <v>1277.127649137346</v>
+        <v>73.80937927516271</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>731.1487907657211</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C21" t="n">
-        <v>597.1537195146668</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D21" t="n">
-        <v>480.2565617340592</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E21" t="n">
-        <v>359.7637457263872</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F21" t="n">
-        <v>250.8038659088918</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G21" t="n">
-        <v>143.8137532232305</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>73.06654025894656</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I21" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J21" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K21" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L21" t="n">
-        <v>52.31794887918674</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M21" t="n">
-        <v>699.7525662591225</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N21" t="n">
-        <v>1347.187183639058</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O21" t="n">
-        <v>1994.621801018994</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P21" t="n">
-        <v>2098.807144729687</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q21" t="n">
-        <v>2098.807144729687</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R21" t="n">
-        <v>2098.807144729687</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S21" t="n">
-        <v>1990.817134843996</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T21" t="n">
-        <v>1831.475271031004</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U21" t="n">
-        <v>1634.124460169222</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1420.412933162256</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W21" t="n">
-        <v>1207.179764898585</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X21" t="n">
-        <v>1030.853783037478</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>871.4518234013077</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1141.651799180323</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="C22" t="n">
-        <v>970.5584267420397</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="D22" t="n">
-        <v>811.0637820649497</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="E22" t="n">
-        <v>650.1529669332692</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="F22" t="n">
-        <v>485.5218410438605</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="G22" t="n">
-        <v>318.2714499694039</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="H22" t="n">
-        <v>168.6639947748606</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="I22" t="n">
-        <v>52.31794887918674</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J22" t="n">
-        <v>66.40049828439726</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K22" t="n">
-        <v>220.9528260066352</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L22" t="n">
-        <v>480.8499262866958</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M22" t="n">
-        <v>770.1139827271891</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N22" t="n">
-        <v>1050.952765121439</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O22" t="n">
-        <v>1310.513375447913</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P22" t="n">
-        <v>1516.188815697526</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q22" t="n">
-        <v>1581.716845500037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R22" t="n">
-        <v>1496.444127175436</v>
+        <v>2002.981563155501</v>
       </c>
       <c r="S22" t="n">
-        <v>1496.444127175436</v>
+        <v>1816.589795035411</v>
       </c>
       <c r="T22" t="n">
-        <v>1496.444127175436</v>
+        <v>1577.041056012114</v>
       </c>
       <c r="U22" t="n">
-        <v>1496.444127175436</v>
+        <v>1294.242908558238</v>
       </c>
       <c r="V22" t="n">
-        <v>1496.444127175436</v>
+        <v>1020.35716349776</v>
       </c>
       <c r="W22" t="n">
-        <v>1496.444127175436</v>
+        <v>741.2874990066341</v>
       </c>
       <c r="X22" t="n">
-        <v>1496.444127175436</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="Y22" t="n">
-        <v>1329.351505574368</v>
+        <v>675.2014307549252</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1616.561405884877</v>
+        <v>1287.260303845748</v>
       </c>
       <c r="C23" t="n">
-        <v>1206.436815198147</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="D23" t="n">
-        <v>1206.436815198147</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E23" t="n">
-        <v>1206.436815198147</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F23" t="n">
-        <v>785.4064031518342</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G23" t="n">
-        <v>376.6781190446663</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J23" t="n">
-        <v>83.5301712592041</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K23" t="n">
-        <v>621.6896723682436</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L23" t="n">
-        <v>1334.281072180482</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M23" t="n">
-        <v>2110.599663172236</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N23" t="n">
-        <v>2863.780679810854</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O23" t="n">
-        <v>3507.411536227959</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P23" t="n">
-        <v>4036.56823414711</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S23" t="n">
-        <v>4041.227487754305</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T23" t="n">
-        <v>3819.021003701164</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U23" t="n">
-        <v>3561.960511960674</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V23" t="n">
-        <v>3212.122957297155</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W23" t="n">
-        <v>2828.362656432324</v>
+        <v>1697.481483510237</v>
       </c>
       <c r="X23" t="n">
-        <v>2427.719258601276</v>
+        <v>1697.481483510237</v>
       </c>
       <c r="Y23" t="n">
-        <v>2026.782585549366</v>
+        <v>1697.481483510237</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>762.3610131457385</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C24" t="n">
-        <v>628.3659418946842</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D24" t="n">
-        <v>511.4687841140766</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E24" t="n">
-        <v>390.9759681064046</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F24" t="n">
-        <v>282.0160882889091</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G24" t="n">
-        <v>175.0259756032479</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H24" t="n">
-        <v>104.2787626389639</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I24" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J24" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K24" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L24" t="n">
-        <v>83.5301712592041</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M24" t="n">
-        <v>926.5072519537707</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N24" t="n">
-        <v>1800.165344065389</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O24" t="n">
-        <v>2130.019367109704</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="P24" t="n">
-        <v>2130.019367109704</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q24" t="n">
-        <v>2130.019367109704</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R24" t="n">
-        <v>2130.019367109704</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S24" t="n">
-        <v>2022.029357224013</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T24" t="n">
-        <v>1862.687493411021</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U24" t="n">
-        <v>1665.33668254924</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1451.625155542274</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W24" t="n">
-        <v>1238.391987278602</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X24" t="n">
-        <v>1062.066005417495</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>902.6640457813252</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>243.0248159362941</v>
+        <v>1158.40534984338</v>
       </c>
       <c r="C25" t="n">
-        <v>243.0248159362941</v>
+        <v>987.3119774050965</v>
       </c>
       <c r="D25" t="n">
-        <v>83.5301712592041</v>
+        <v>875.7132311282514</v>
       </c>
       <c r="E25" t="n">
-        <v>83.5301712592041</v>
+        <v>875.7132311282514</v>
       </c>
       <c r="F25" t="n">
-        <v>83.5301712592041</v>
+        <v>875.7132311282514</v>
       </c>
       <c r="G25" t="n">
-        <v>83.5301712592041</v>
+        <v>708.4628400537948</v>
       </c>
       <c r="H25" t="n">
-        <v>83.5301712592041</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="I25" t="n">
-        <v>83.5301712592041</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J25" t="n">
-        <v>97.61272066441461</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K25" t="n">
-        <v>252.1650483866526</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L25" t="n">
-        <v>512.0621486667131</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M25" t="n">
-        <v>801.3262051072064</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N25" t="n">
-        <v>1082.164987501457</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O25" t="n">
-        <v>1341.725597827931</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P25" t="n">
-        <v>1547.401038077543</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q25" t="n">
-        <v>1612.929067880054</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R25" t="n">
-        <v>1612.929067880054</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S25" t="n">
-        <v>1612.929067880054</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T25" t="n">
-        <v>1612.929067880054</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U25" t="n">
-        <v>1446.759492633494</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V25" t="n">
-        <v>1172.873747573016</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W25" t="n">
-        <v>893.8040830818904</v>
+        <v>1809.184616988976</v>
       </c>
       <c r="X25" t="n">
-        <v>655.4602209415738</v>
+        <v>1570.84075484866</v>
       </c>
       <c r="Y25" t="n">
-        <v>430.7245223303385</v>
+        <v>1346.105056237424</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>927.2588741001834</v>
+        <v>1270.693821706375</v>
       </c>
       <c r="C26" t="n">
-        <v>517.1342834134535</v>
+        <v>860.5692310196448</v>
       </c>
       <c r="D26" t="n">
-        <v>112.6703535065141</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L26" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M26" t="n">
-        <v>1075.450954962253</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N26" t="n">
         <v>1592.293889628578</v>
@@ -6260,16 +6262,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V26" t="n">
-        <v>1738.416726816583</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W26" t="n">
-        <v>1738.416726816583</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X26" t="n">
-        <v>1738.416726816583</v>
+        <v>2081.851674422774</v>
       </c>
       <c r="Y26" t="n">
-        <v>1337.480053764673</v>
+        <v>1680.915001370864</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6302,31 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J27" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K27" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L27" t="n">
-        <v>537.7254774811262</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M27" t="n">
-        <v>1054.568412147451</v>
+        <v>675.164428100838</v>
       </c>
       <c r="N27" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O27" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P27" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q27" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R27" t="n">
         <v>2088.254281480102</v>
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>497.0665631046558</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C28" t="n">
-        <v>497.0665631046558</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D28" t="n">
-        <v>337.5719184275658</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E28" t="n">
-        <v>337.5719184275658</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F28" t="n">
-        <v>337.5719184275658</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G28" t="n">
-        <v>307.7185867198193</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H28" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L28" t="n">
         <v>470.2970630371111</v>
@@ -6415,19 +6417,19 @@
         <v>1571.163982250452</v>
       </c>
       <c r="U28" t="n">
-        <v>1288.365834796576</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V28" t="n">
-        <v>1014.480089736098</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W28" t="n">
-        <v>735.4104252449724</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X28" t="n">
-        <v>497.0665631046558</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y28" t="n">
-        <v>497.0665631046558</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1188.0442105313</v>
+        <v>856.3536062232714</v>
       </c>
       <c r="C29" t="n">
-        <v>1188.0442105313</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D29" t="n">
-        <v>1188.0442105313</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E29" t="n">
-        <v>773.7039950481965</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F29" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G29" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J29" t="n">
-        <v>176.0078249962696</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K29" t="n">
-        <v>176.0078249962696</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L29" t="n">
-        <v>692.8507596625949</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="M29" t="n">
-        <v>1209.69369432892</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N29" t="n">
-        <v>1726.536628995245</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O29" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P29" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q29" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R29" t="n">
         <v>2088.254281480102</v>
@@ -6497,16 +6499,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V29" t="n">
-        <v>1982.025691060621</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W29" t="n">
-        <v>1598.265390195789</v>
+        <v>2068.154856770718</v>
       </c>
       <c r="X29" t="n">
-        <v>1598.265390195789</v>
+        <v>1667.511458939671</v>
       </c>
       <c r="Y29" t="n">
-        <v>1598.265390195789</v>
+        <v>1266.574785887761</v>
       </c>
     </row>
     <row r="30">
@@ -6516,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G30" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J30" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K30" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L30" t="n">
-        <v>537.7254774811266</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M30" t="n">
-        <v>1054.568412147452</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N30" t="n">
-        <v>1571.411346813777</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O30" t="n">
-        <v>2088.254281480102</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P30" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q30" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R30" t="n">
         <v>2088.254281480102</v>
@@ -6576,16 +6578,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V30" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W30" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X30" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="31">
@@ -6595,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1131.098935930739</v>
+        <v>1109.57853079593</v>
       </c>
       <c r="C31" t="n">
         <v>960.0055634924552</v>
@@ -6610,19 +6612,19 @@
         <v>474.9689777942758</v>
       </c>
       <c r="G31" t="n">
-        <v>307.7185867198193</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H31" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J31" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K31" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L31" t="n">
         <v>470.2970630371111</v>
@@ -6655,16 +6657,16 @@
         <v>1571.163982250452</v>
       </c>
       <c r="V31" t="n">
-        <v>1571.163982250452</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W31" t="n">
-        <v>1571.163982250452</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="X31" t="n">
-        <v>1543.534340936018</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="Y31" t="n">
-        <v>1318.798642324783</v>
+        <v>1297.278237189974</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1695.988587952916</v>
+        <v>927.5521493210456</v>
       </c>
       <c r="C32" t="n">
-        <v>1285.863997266186</v>
+        <v>517.4275586343157</v>
       </c>
       <c r="D32" t="n">
-        <v>1285.863997266186</v>
+        <v>517.4275586343157</v>
       </c>
       <c r="E32" t="n">
-        <v>871.5237817830823</v>
+        <v>517.4275586343157</v>
       </c>
       <c r="F32" t="n">
-        <v>450.4933697367699</v>
+        <v>517.4275586343157</v>
       </c>
       <c r="G32" t="n">
-        <v>41.76508562960205</v>
+        <v>108.6992745271478</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K32" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L32" t="n">
-        <v>1075.450954962253</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M32" t="n">
-        <v>1075.450954962253</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N32" t="n">
-        <v>1075.450954962253</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O32" t="n">
-        <v>1592.293889628578</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P32" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q32" t="n">
         <v>2047.697635790537</v>
@@ -6734,16 +6736,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V32" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.416726816582</v>
       </c>
       <c r="W32" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.416726816582</v>
       </c>
       <c r="X32" t="n">
-        <v>2088.254281480102</v>
+        <v>1337.773328985535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2088.254281480102</v>
+        <v>1337.773328985535</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6776,31 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J33" t="n">
-        <v>81.91922121582746</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K33" t="n">
-        <v>537.7254774811262</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L33" t="n">
-        <v>1054.568412147451</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="M33" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N33" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O33" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P33" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q33" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R33" t="n">
         <v>2088.254281480102</v>
@@ -6832,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1158.40534984338</v>
+        <v>729.9487572975349</v>
       </c>
       <c r="C34" t="n">
-        <v>987.311977405097</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="D34" t="n">
-        <v>827.8173327280069</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="E34" t="n">
-        <v>666.9065175963265</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="F34" t="n">
-        <v>558.8553848592519</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="G34" t="n">
-        <v>558.8553848592519</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="H34" t="n">
-        <v>558.8553848592519</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="I34" t="n">
-        <v>558.8553848592519</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J34" t="n">
-        <v>572.9379342644625</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K34" t="n">
-        <v>727.4902619867005</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L34" t="n">
-        <v>987.3873622667611</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M34" t="n">
         <v>1276.651418707254</v>
       </c>
       <c r="N34" t="n">
-        <v>1557.490201101505</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O34" t="n">
-        <v>1817.050811427979</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P34" t="n">
         <v>2022.726251677591</v>
@@ -6889,19 +6891,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U34" t="n">
-        <v>2088.254281480102</v>
+        <v>1933.683433994735</v>
       </c>
       <c r="V34" t="n">
-        <v>2088.254281480102</v>
+        <v>1659.797688934257</v>
       </c>
       <c r="W34" t="n">
-        <v>1809.184616988977</v>
+        <v>1380.728024443131</v>
       </c>
       <c r="X34" t="n">
-        <v>1570.84075484866</v>
+        <v>1142.384162302815</v>
       </c>
       <c r="Y34" t="n">
-        <v>1346.105056237425</v>
+        <v>917.6484636915793</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1690.327927173125</v>
+        <v>856.3536062232714</v>
       </c>
       <c r="C35" t="n">
-        <v>1690.327927173125</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D35" t="n">
-        <v>1285.863997266186</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E35" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F35" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L35" t="n">
-        <v>537.7254774811266</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M35" t="n">
-        <v>1054.568412147452</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N35" t="n">
-        <v>1571.411346813777</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O35" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P35" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q35" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R35" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S35" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T35" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U35" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V35" t="n">
-        <v>1690.327927173125</v>
+        <v>2068.154856770718</v>
       </c>
       <c r="W35" t="n">
-        <v>1690.327927173125</v>
+        <v>2068.154856770718</v>
       </c>
       <c r="X35" t="n">
-        <v>1690.327927173125</v>
+        <v>1667.511458939671</v>
       </c>
       <c r="Y35" t="n">
-        <v>1690.327927173125</v>
+        <v>1266.574785887761</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J36" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K36" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L36" t="n">
-        <v>41.76508562960205</v>
+        <v>675.164428100838</v>
       </c>
       <c r="M36" t="n">
-        <v>558.6080202959273</v>
+        <v>675.164428100838</v>
       </c>
       <c r="N36" t="n">
-        <v>1054.568412147451</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O36" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P36" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q36" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R36" t="n">
         <v>2088.254281480102</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>865.1454348405214</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C37" t="n">
-        <v>694.0520624022379</v>
+        <v>843.6595175967811</v>
       </c>
       <c r="D37" t="n">
-        <v>534.5574177251478</v>
+        <v>684.1648729196911</v>
       </c>
       <c r="E37" t="n">
-        <v>373.6466025934674</v>
+        <v>523.2540577880106</v>
       </c>
       <c r="F37" t="n">
-        <v>209.0154767040586</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G37" t="n">
-        <v>41.76508562960205</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H37" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I37" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J37" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K37" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L37" t="n">
         <v>470.2970630371111</v>
@@ -7129,16 +7131,16 @@
         <v>1571.163982250452</v>
       </c>
       <c r="V37" t="n">
-        <v>1571.163982250452</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W37" t="n">
-        <v>1515.924701986118</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.580839845801</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="Y37" t="n">
-        <v>1052.845141234566</v>
+        <v>1072.542538578738</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1691.724233752687</v>
+        <v>474.4527771062102</v>
       </c>
       <c r="C38" t="n">
-        <v>1281.599643065957</v>
+        <v>474.4527771062102</v>
       </c>
       <c r="D38" t="n">
-        <v>877.1357131590178</v>
+        <v>474.4527771062102</v>
       </c>
       <c r="E38" t="n">
-        <v>462.7954976759145</v>
+        <v>474.4527771062102</v>
       </c>
       <c r="F38" t="n">
-        <v>41.76508562960205</v>
+        <v>474.4527771062102</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L38" t="n">
-        <v>558.6080202959273</v>
+        <v>176.0078249962694</v>
       </c>
       <c r="M38" t="n">
-        <v>1075.450954962253</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="N38" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O38" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P38" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q38" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R38" t="n">
         <v>2088.254281480102</v>
@@ -7202,22 +7204,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T38" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U38" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V38" t="n">
-        <v>2088.254281480102</v>
+        <v>1259.149751022951</v>
       </c>
       <c r="W38" t="n">
-        <v>2088.254281480102</v>
+        <v>875.3894501581201</v>
       </c>
       <c r="X38" t="n">
-        <v>2088.254281480102</v>
+        <v>875.3894501581201</v>
       </c>
       <c r="Y38" t="n">
-        <v>2088.254281480102</v>
+        <v>474.4527771062102</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C39" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D39" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E39" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F39" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G39" t="n">
-        <v>133.2608899736458</v>
+        <v>133.2608899736455</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936156</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J39" t="n">
-        <v>81.91922121582746</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K39" t="n">
-        <v>537.7254774811262</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L39" t="n">
+        <v>537.7254774811263</v>
+      </c>
+      <c r="M39" t="n">
         <v>1054.568412147451</v>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>1571.411346813777</v>
       </c>
-      <c r="N39" t="n">
-        <v>2088.254281480102</v>
-      </c>
       <c r="O39" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P39" t="n">
         <v>2088.254281480102</v>
@@ -7284,7 +7286,7 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U39" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V39" t="n">
         <v>1409.860069912671</v>
@@ -7296,7 +7298,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y39" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>362.4959457075205</v>
+        <v>693.3871153509499</v>
       </c>
       <c r="C40" t="n">
-        <v>191.402573269237</v>
+        <v>522.2937429126664</v>
       </c>
       <c r="D40" t="n">
-        <v>41.76508562960205</v>
+        <v>362.7990982355764</v>
       </c>
       <c r="E40" t="n">
-        <v>41.76508562960205</v>
+        <v>201.8882831038959</v>
       </c>
       <c r="F40" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G40" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H40" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7354,28 +7356,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R40" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S40" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T40" t="n">
-        <v>1331.615243227154</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U40" t="n">
-        <v>1048.817095773278</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="V40" t="n">
-        <v>774.9313507128002</v>
+        <v>972.4567798420755</v>
       </c>
       <c r="W40" t="n">
-        <v>774.9313507128002</v>
+        <v>693.3871153509499</v>
       </c>
       <c r="X40" t="n">
-        <v>774.9313507128002</v>
+        <v>693.3871153509499</v>
       </c>
       <c r="Y40" t="n">
-        <v>550.1956521015649</v>
+        <v>693.3871153509499</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1097.595934211262</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C41" t="n">
-        <v>1097.595934211262</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D41" t="n">
-        <v>1097.595934211262</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E41" t="n">
-        <v>683.2557187281584</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F41" t="n">
-        <v>262.225306681846</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G41" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J41" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K41" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L41" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M41" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N41" t="n">
-        <v>1329.636426430007</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O41" t="n">
-        <v>1726.536628995245</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P41" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q41" t="n">
         <v>2047.697635790537</v>
@@ -7442,19 +7444,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U41" t="n">
-        <v>1831.193789739612</v>
+        <v>1948.235134414162</v>
       </c>
       <c r="V41" t="n">
-        <v>1481.356235076093</v>
+        <v>1948.235134414162</v>
       </c>
       <c r="W41" t="n">
-        <v>1097.595934211262</v>
+        <v>1564.474833549331</v>
       </c>
       <c r="X41" t="n">
-        <v>1097.595934211262</v>
+        <v>1163.831435718284</v>
       </c>
       <c r="Y41" t="n">
-        <v>1097.595934211262</v>
+        <v>762.8947626663735</v>
       </c>
     </row>
     <row r="42">
@@ -7464,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C42" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F42" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G42" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J42" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K42" t="n">
-        <v>41.76508562960205</v>
+        <v>187.8810127971428</v>
       </c>
       <c r="L42" t="n">
-        <v>508.1659581184966</v>
+        <v>187.8810127971428</v>
       </c>
       <c r="M42" t="n">
-        <v>1025.008892784822</v>
+        <v>704.723947463468</v>
       </c>
       <c r="N42" t="n">
-        <v>1025.008892784822</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O42" t="n">
-        <v>1541.851827451147</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="P42" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q42" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R42" t="n">
         <v>2088.254281480102</v>
@@ -7524,16 +7526,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V42" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X42" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.76508562960205</v>
+        <v>718.3500295363415</v>
       </c>
       <c r="C43" t="n">
-        <v>41.76508562960205</v>
+        <v>718.3500295363415</v>
       </c>
       <c r="D43" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="E43" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="F43" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="G43" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="H43" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481257</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L43" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M43" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N43" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O43" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P43" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q43" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R43" t="n">
-        <v>1485.891263925851</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S43" t="n">
-        <v>1299.499495805762</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T43" t="n">
-        <v>1059.950756782464</v>
+        <v>2017.183147293373</v>
       </c>
       <c r="U43" t="n">
-        <v>777.1526093285881</v>
+        <v>1734.384999839497</v>
       </c>
       <c r="V43" t="n">
-        <v>503.2668642681101</v>
+        <v>1460.499254779019</v>
       </c>
       <c r="W43" t="n">
-        <v>280.1089477699186</v>
+        <v>1181.429590287893</v>
       </c>
       <c r="X43" t="n">
-        <v>41.76508562960205</v>
+        <v>943.0857281475768</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.76508562960205</v>
+        <v>718.3500295363415</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>388.6633842972142</v>
+        <v>1132.44994189861</v>
       </c>
       <c r="C44" t="n">
-        <v>388.6633842972142</v>
+        <v>1132.44994189861</v>
       </c>
       <c r="D44" t="n">
-        <v>388.6633842972142</v>
+        <v>1132.44994189861</v>
       </c>
       <c r="E44" t="n">
-        <v>388.6633842972142</v>
+        <v>1132.44994189861</v>
       </c>
       <c r="F44" t="n">
-        <v>31.21222238001735</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G44" t="n">
-        <v>31.21222238001735</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H44" t="n">
-        <v>31.21222238001735</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J44" t="n">
-        <v>285.3976938477716</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K44" t="n">
-        <v>671.6489458004863</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L44" t="n">
-        <v>671.6489458004863</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M44" t="n">
-        <v>1057.900197753201</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N44" t="n">
-        <v>1444.151449705916</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="O44" t="n">
-        <v>1520.054473311303</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P44" t="n">
-        <v>1520.054473311303</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q44" t="n">
-        <v>1520.054473311303</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R44" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T44" t="n">
-        <v>1560.611119000868</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U44" t="n">
-        <v>1560.611119000868</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V44" t="n">
-        <v>1560.611119000868</v>
+        <v>1516.210242763441</v>
       </c>
       <c r="W44" t="n">
-        <v>1176.850818136036</v>
+        <v>1132.44994189861</v>
       </c>
       <c r="X44" t="n">
-        <v>782.7571012166252</v>
+        <v>1132.44994189861</v>
       </c>
       <c r="Y44" t="n">
-        <v>782.7571012166252</v>
+        <v>1132.44994189861</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>333.2557976724885</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C45" t="n">
-        <v>333.2557976724885</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D45" t="n">
-        <v>216.358639891881</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E45" t="n">
-        <v>216.358639891881</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F45" t="n">
-        <v>107.3987600743855</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G45" t="n">
-        <v>107.3987600743855</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H45" t="n">
-        <v>36.65154711010159</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I45" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J45" t="n">
-        <v>224.0250799426506</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K45" t="n">
-        <v>224.0250799426506</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L45" t="n">
-        <v>224.0250799426506</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M45" t="n">
-        <v>408.7046310488249</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N45" t="n">
-        <v>794.9558830015396</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O45" t="n">
-        <v>794.9558830015396</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P45" t="n">
-        <v>1181.207134954254</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q45" t="n">
-        <v>1531.051599638238</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R45" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S45" t="n">
-        <v>1452.621109115176</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T45" t="n">
-        <v>1293.279245302185</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U45" t="n">
-        <v>1095.928434440403</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
-        <v>882.216907433437</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W45" t="n">
-        <v>668.9837391697657</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X45" t="n">
-        <v>492.6577573086585</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>333.2557976724885</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>766.5997460790038</v>
+        <v>201.259730306692</v>
       </c>
       <c r="C46" t="n">
-        <v>766.5997460790038</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D46" t="n">
-        <v>766.5997460790038</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E46" t="n">
-        <v>629.0472404340999</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F46" t="n">
-        <v>464.4161145446911</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G46" t="n">
-        <v>297.1657234702345</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H46" t="n">
-        <v>147.5582682756912</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J46" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K46" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L46" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M46" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N46" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O46" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P46" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q46" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R46" t="n">
-        <v>1475.338400676267</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S46" t="n">
-        <v>1288.946632556178</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T46" t="n">
-        <v>1049.39789353288</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U46" t="n">
-        <v>766.5997460790038</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V46" t="n">
-        <v>766.5997460790038</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W46" t="n">
-        <v>766.5997460790038</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X46" t="n">
-        <v>766.5997460790038</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y46" t="n">
-        <v>766.5997460790038</v>
+        <v>257.5178240813579</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>549.1401736751963</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N2" t="n">
-        <v>493.8215862770622</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8055,28 +8057,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>332.4660540393959</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>67.39425105392507</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8219,22 +8221,22 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>494.1995199774881</v>
       </c>
       <c r="N5" t="n">
-        <v>296.1630732760186</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8292,25 +8294,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>332.1773130131622</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>525.3716274158282</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8453,28 +8455,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>549.1401736751965</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M8" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>269.477326166955</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,22 +8531,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M9" t="n">
-        <v>395.5690244730517</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>554.1634861730674</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
@@ -8553,7 +8555,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,25 +8692,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>265.7014250835527</v>
       </c>
       <c r="L11" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M11" t="n">
-        <v>594.2603172363632</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>87.31214281472352</v>
@@ -8772,22 +8774,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M12" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700256</v>
+        <v>98.31121191537929</v>
       </c>
       <c r="P12" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.25235142021847</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266449</v>
+        <v>534.7878950544003</v>
       </c>
       <c r="O14" t="n">
-        <v>594.1598684051008</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>87.31214281472352</v>
@@ -9003,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>72.04887768380529</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>528.8634714130243</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P15" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,25 +9169,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O17" t="n">
-        <v>594.1598684051008</v>
+        <v>228.7885022587805</v>
       </c>
       <c r="P17" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,25 +9245,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M18" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>558.7215717793174</v>
       </c>
       <c r="P18" t="n">
-        <v>263.5046911326701</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9398,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>544.7898882081049</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M20" t="n">
-        <v>747.2645854468797</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N20" t="n">
-        <v>746.8866517464535</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O20" t="n">
-        <v>93.18977562578313</v>
+        <v>553.1935596277623</v>
       </c>
       <c r="P20" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q20" t="n">
         <v>90.03380439915205</v>
@@ -9483,22 +9485,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M21" t="n">
-        <v>711.5386447282516</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>707.1677543835841</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O21" t="n">
-        <v>711.7258399898342</v>
+        <v>205.3433246237786</v>
       </c>
       <c r="P21" t="n">
-        <v>159.4973559226951</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>632.7318453389136</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L23" t="n">
-        <v>815.2746908024792</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M23" t="n">
-        <v>877.4504173780091</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N23" t="n">
-        <v>853.701196452193</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O23" t="n">
-        <v>743.321953824879</v>
+        <v>337.4068669225205</v>
       </c>
       <c r="P23" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q23" t="n">
-        <v>231.3876718871261</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R23" t="n">
         <v>87.31214281472352</v>
@@ -9720,22 +9722,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>205.3433246237786</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9878,16 +9880,16 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L26" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M26" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N26" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O26" t="n">
-        <v>594.1598684051008</v>
+        <v>594.1598684051006</v>
       </c>
       <c r="P26" t="n">
         <v>93.64936328088416</v>
@@ -9957,25 +9959,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>557.0846165901664</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M27" t="n">
-        <v>579.627854108443</v>
+        <v>175.2980289959031</v>
       </c>
       <c r="N27" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O27" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>208.9223179663055</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K29" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L29" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M29" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N29" t="n">
-        <v>614.9758611266449</v>
+        <v>593.8823835359368</v>
       </c>
       <c r="O29" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P29" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q29" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,28 +10193,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>96.67425672622875</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N30" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O30" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>171.9933802602894</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,25 +10351,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K32" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L32" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M32" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N32" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O32" t="n">
-        <v>615.2533459958087</v>
+        <v>553.1935596277623</v>
       </c>
       <c r="P32" t="n">
-        <v>229.2480899138817</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10425,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>91.92897171537922</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M33" t="n">
-        <v>579.627854108443</v>
+        <v>502.6011371814505</v>
       </c>
       <c r="N33" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,16 +10591,16 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>596.4554908421626</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N35" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O35" t="n">
-        <v>615.2533459958087</v>
+        <v>553.1935596277623</v>
       </c>
       <c r="P35" t="n">
         <v>93.64936328088416</v>
@@ -10607,7 +10609,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R35" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>501.1513772538821</v>
       </c>
       <c r="M36" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>554.1634861730673</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O36" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,25 +10828,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L38" t="n">
-        <v>617.5489684328704</v>
+        <v>231.0841246958421</v>
       </c>
       <c r="M38" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N38" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O38" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P38" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q38" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,25 +10901,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>91.92897171537922</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>578.1780941808746</v>
+        <v>557.0846165901664</v>
       </c>
       <c r="M39" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N39" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M41" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N41" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O41" t="n">
-        <v>494.099071146226</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>553.6531472828633</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11139,28 +11141,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>203.417628408394</v>
       </c>
       <c r="L42" t="n">
-        <v>527.2265162238739</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P42" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M44" t="n">
-        <v>483.4430042072623</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N44" t="n">
-        <v>483.0650705068362</v>
+        <v>228.5110173896167</v>
       </c>
       <c r="O44" t="n">
-        <v>169.8594964393052</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11376,22 +11378,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>244.1092848557653</v>
+        <v>564.2543476875378</v>
       </c>
       <c r="N45" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>444.4124147530206</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
@@ -22556,7 +22558,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>191.2633850272793</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
@@ -22565,7 +22567,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>36.87440926630906</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22600,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22613,7 +22615,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>137.4342356413308</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>248.2640602371185</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -22784,13 +22786,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400.4957640824185</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>390.2983828659826</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
@@ -22835,13 +22837,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -22951,16 +22953,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>157.807801721008</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>154.2665047124107</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -23018,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>264.5521231543098</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>105.696398031214</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23185,19 +23187,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>23.12472639190918</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23236,13 +23238,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300493</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>33.84907557688456</v>
+        <v>295.9050193496289</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -23270,10 +23272,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -23315,13 +23317,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>23.12472639190918</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300493</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23495,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>269.2511096031398</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -23513,7 +23515,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,10 +23548,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>214.0948636091082</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -23668,10 +23670,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>82.68617307340649</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23729,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>12.07625401595521</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -23789,16 +23791,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>305.9441559029074</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23902,7 +23904,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>82.71990031427126</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23938,7 +23940,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>8.893130557884632</v>
       </c>
     </row>
     <row r="20">
@@ -23966,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>385.0962572167442</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
@@ -24020,13 +24022,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>194.4440502734241</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>170.5352159497217</v>
       </c>
       <c r="Y22" t="n">
-        <v>57.06664624006493</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24212,16 +24214,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>17.58294409095157</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24254,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>213.042047078627</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24364,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>47.41693941624246</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24376,10 +24378,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24418,10 +24420,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>115.4622864852427</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24449,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>340.0005981301293</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
@@ -24500,13 +24502,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>390.2983828659825</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>136.0230887730429</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24655,19 +24657,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24680,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24737,16 +24739,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>241.1728746015973</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>360.0242673938934</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>21.30520108346107</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>17.77593127592985</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24923,16 +24925,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>241.5345653899888</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -24974,13 +24976,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -25078,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>56.01419322081084</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
@@ -25129,10 +25131,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>126.945026968824</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
@@ -25211,16 +25213,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>86.32035280681703</v>
+        <v>326.4407486545944</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>128.6109572718669</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25369,13 +25371,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>221.5920803845235</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25388,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>13.55422061770378</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>284.0795991028132</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -25442,22 +25444,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>9.758585467080479</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>119.6454345676808</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
@@ -25567,7 +25569,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -25603,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -25634,16 +25636,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>186.3853824243747</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25682,19 +25684,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>115.8709312278049</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,7 +25791,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>166.7928287882034</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>55.35263051300487</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -25874,16 +25876,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>62.94345762782444</v>
+        <v>134.9707589402844</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,19 +25918,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -25941,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>15.15617398317883</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>130.1271964931847</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>23.12472639190884</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>552470.7001526734</v>
+        <v>552470.7001526733</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>552470.7001526736</v>
+        <v>552470.7001526735</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>552470.7001526736</v>
+        <v>552470.7001526733</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>552470.7001526736</v>
+        <v>552470.7001526733</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>611659.8575378017</v>
+        <v>552470.7001526735</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>786723.7334828617</v>
+        <v>552470.7001526735</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>552470.7001526735</v>
+        <v>552470.7001526733</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>552470.7001526734</v>
+        <v>552470.7001526735</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>552470.7001526735</v>
+        <v>552470.7001526733</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>552470.7001526734</v>
+        <v>552470.7001526733</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>552470.7001526735</v>
+        <v>552470.7001526733</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>461753.6498890344</v>
+        <v>552470.7001526735</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>161720.1620581894</v>
       </c>
       <c r="C2" t="n">
+        <v>161720.1620581894</v>
+      </c>
+      <c r="D2" t="n">
         <v>161720.1620581895</v>
-      </c>
-      <c r="D2" t="n">
-        <v>161720.1620581894</v>
       </c>
       <c r="E2" t="n">
         <v>161720.1620581894</v>
       </c>
       <c r="F2" t="n">
-        <v>161720.1620581895</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="G2" t="n">
         <v>161720.1620581895</v>
       </c>
       <c r="H2" t="n">
-        <v>179038.3952328991</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="I2" t="n">
-        <v>230260.5642588557</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="J2" t="n">
-        <v>161720.1620581895</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="K2" t="n">
         <v>161720.1620581895</v>
       </c>
       <c r="L2" t="n">
-        <v>161720.1620581895</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="M2" t="n">
         <v>161720.1620581894</v>
       </c>
       <c r="N2" t="n">
-        <v>161720.1620581895</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="O2" t="n">
-        <v>161720.1620581895</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="P2" t="n">
-        <v>135177.1413632827</v>
+        <v>161720.1620581894</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.5098931141</v>
+        <v>174955.509893114</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>35590.71850633996</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>103749.8173439574</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26424,7 +26426,7 @@
         <v>48718.21749193841</v>
       </c>
       <c r="E4" t="n">
-        <v>48718.21749193842</v>
+        <v>48718.21749193841</v>
       </c>
       <c r="F4" t="n">
         <v>48718.21749193841</v>
@@ -26433,16 +26435,16 @@
         <v>48718.21749193841</v>
       </c>
       <c r="H4" t="n">
-        <v>53977.60037988087</v>
+        <v>48718.21749193841</v>
       </c>
       <c r="I4" t="n">
-        <v>69533.28649062227</v>
+        <v>48718.21749193842</v>
       </c>
       <c r="J4" t="n">
         <v>48718.21749193841</v>
       </c>
       <c r="K4" t="n">
-        <v>48718.21749193842</v>
+        <v>48718.21749193841</v>
       </c>
       <c r="L4" t="n">
         <v>48718.21749193841</v>
@@ -26457,7 +26459,7 @@
         <v>48718.21749193841</v>
       </c>
       <c r="P4" t="n">
-        <v>40657.35427172508</v>
+        <v>48718.21749193841</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26485,10 +26487,10 @@
         <v>31741.46507849755</v>
       </c>
       <c r="H5" t="n">
-        <v>39761.64114818192</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="I5" t="n">
-        <v>63482.93015699511</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="J5" t="n">
         <v>31741.46507849755</v>
@@ -26509,7 +26511,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="P5" t="n">
-        <v>23721.28900881319</v>
+        <v>31741.46507849755</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-127322.6304053606</v>
       </c>
       <c r="C6" t="n">
-        <v>47632.87948775352</v>
+        <v>47632.87948775347</v>
       </c>
       <c r="D6" t="n">
-        <v>47632.87948775346</v>
+        <v>47632.8794877535</v>
       </c>
       <c r="E6" t="n">
-        <v>81260.47948775343</v>
+        <v>81260.47948775347</v>
       </c>
       <c r="F6" t="n">
-        <v>81260.47948775352</v>
+        <v>81260.47948775347</v>
       </c>
       <c r="G6" t="n">
-        <v>81260.47948775355</v>
+        <v>81260.4794877535</v>
       </c>
       <c r="H6" t="n">
-        <v>49708.43519849639</v>
+        <v>81260.47948775347</v>
       </c>
       <c r="I6" t="n">
-        <v>-6505.469732719168</v>
+        <v>81260.47948775347</v>
       </c>
       <c r="J6" t="n">
-        <v>81260.47948775352</v>
+        <v>-55334.32131814148</v>
       </c>
       <c r="K6" t="n">
-        <v>81260.47948775355</v>
+        <v>81260.4794877535</v>
       </c>
       <c r="L6" t="n">
-        <v>81260.47948775352</v>
+        <v>81260.47948775347</v>
       </c>
       <c r="M6" t="n">
-        <v>81260.47948775343</v>
+        <v>81260.47948775347</v>
       </c>
       <c r="N6" t="n">
-        <v>81260.47948775355</v>
+        <v>81260.47948775344</v>
       </c>
       <c r="O6" t="n">
-        <v>81260.47948775352</v>
+        <v>81260.47948775344</v>
       </c>
       <c r="P6" t="n">
-        <v>70798.49808274442</v>
+        <v>81260.47948775342</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="H4" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="I4" t="n">
-        <v>1044.127140740051</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>390.152779750217</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N2" t="n">
-        <v>400.9092955204429</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>276.3515302285468</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>10.70163254908636</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34939,22 +34941,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204426</v>
       </c>
       <c r="N5" t="n">
-        <v>203.2507825193993</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>276.3515302285468</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>471.1119924130245</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>176.5650354103356</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M9" t="n">
-        <v>338.0047407346343</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35273,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35410,25 +35412,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>176.5650354103356</v>
       </c>
       <c r="L11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M11" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N11" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M12" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O12" t="n">
-        <v>522.0635703700256</v>
+        <v>40.55973291537929</v>
       </c>
       <c r="P12" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.55973291537975</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L14" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700256</v>
+        <v>441.875604297781</v>
       </c>
       <c r="O14" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>14.48459394538786</v>
       </c>
       <c r="N15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>471.1119924130243</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P15" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35887,25 +35889,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O17" t="n">
-        <v>500.9700927793177</v>
+        <v>135.5987266329973</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="P18" t="n">
-        <v>209.2450561298663</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>449.30449014526</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M20" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N20" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="P20" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M21" t="n">
-        <v>653.9743609898342</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O21" t="n">
-        <v>653.9743609898342</v>
+        <v>147.5918456237786</v>
       </c>
       <c r="P21" t="n">
-        <v>105.2377209198914</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>543.5954556656965</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L23" t="n">
-        <v>719.7892927396343</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M23" t="n">
-        <v>784.1601929209636</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N23" t="n">
-        <v>760.7889056955737</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>650.1321781990958</v>
+        <v>244.2170912967374</v>
       </c>
       <c r="P23" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>141.353867487974</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>147.5918456237786</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36598,16 +36600,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M26" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N26" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O26" t="n">
-        <v>500.9700927793177</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36677,25 +36679,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.9700927793173</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M27" t="n">
-        <v>522.0635703700256</v>
+        <v>117.7337452574857</v>
       </c>
       <c r="N27" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O27" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>135.5987266329975</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L29" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M29" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>40.55973291537969</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N30" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O30" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>117.7337452574857</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,25 +37071,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O32" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="P32" t="n">
-        <v>135.5987266329976</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>40.9663087773382</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>40.55973291537921</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M33" t="n">
-        <v>522.0635703700256</v>
+        <v>445.0368534430331</v>
       </c>
       <c r="N33" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,16 +37311,16 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M35" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N35" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O35" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>445.0368534430331</v>
       </c>
       <c r="M36" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>500.9700927793173</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O36" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,25 +37548,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>522.0635703700256</v>
+        <v>135.5987266329973</v>
       </c>
       <c r="M38" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N38" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O38" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>40.55973291537921</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="M39" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N39" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N41" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O41" t="n">
-        <v>400.9092955204429</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37859,28 +37861,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>147.5918456237786</v>
       </c>
       <c r="L42" t="n">
-        <v>471.1119924130248</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O42" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P42" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N44" t="n">
-        <v>390.1527797502169</v>
+        <v>135.5987266329973</v>
       </c>
       <c r="O44" t="n">
-        <v>76.66972081352203</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38096,22 +38098,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>186.5450011173478</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="N45" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>352906.1813161657</v>
+        <v>347176.7854849393</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11821355.91763807</v>
+        <v>11821355.91763804</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10162932.89091066</v>
+        <v>10162932.89091065</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>271.9059898031824</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>48.61383578978851</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>70.03974083464111</v>
+        <v>70.03974083464124</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596193</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
@@ -837,7 +837,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>6.785396893690758</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>28.0149076090959</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -901,16 +901,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>10.12090774188746</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>65.97450453991695</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>149.7817727994989</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>7.770085442703964</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -1113,13 +1113,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -1144,7 +1144,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>152.2679847715395</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>95.12411753386795</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>136.1769805884545</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -1347,19 +1347,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>62.21865775220499</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>110.2139485182157</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>140.9538414254221</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I12" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3773027531633</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V12" t="n">
         <v>211.5744117368965</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>136.1769805884545</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>202.4683706803283</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>10.52123606071996</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>40.39502321397677</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I15" t="n">
-        <v>20.54110546596193</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>27.77250173713433</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>56.4664424790416</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>40.39502321397677</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>263.5108105965465</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>31.72385070910507</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
@@ -2301,13 +2301,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>82.85798684944078</v>
       </c>
       <c r="X22" t="n">
-        <v>65.42520756919177</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>42.36677840961278</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>166.8806507775562</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>110.4827588140766</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>29.06736062834933</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>346.6630339611676</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>6.338580986754437</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.7228925766561</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>19.89843046228975</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>148.0772376304396</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="32">
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>355.3342064660394</v>
       </c>
       <c r="H32" t="n">
-        <v>66.26484700857036</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>153.0251390105131</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>121.4196543346091</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>19.89843046228975</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57.21175205823708</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>27.77250173713433</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>388.2474135039329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>120.5614021632829</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I39" t="n">
-        <v>20.54110546596193</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>43.33938006283382</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>151.8323108963612</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>100.0791888769556</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>138.6189555952801</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>70.36042284486155</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>281.8493489855649</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>306.9326369962449</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -4030,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>55.69551283691924</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>29.06736062834933</v>
       </c>
     </row>
   </sheetData>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>500.9945609524819</v>
+        <v>1552.036533222293</v>
       </c>
       <c r="C2" t="n">
-        <v>90.86997026575204</v>
+        <v>1141.911942535563</v>
       </c>
       <c r="D2" t="n">
-        <v>90.86997026575204</v>
+        <v>737.4480126286239</v>
       </c>
       <c r="E2" t="n">
-        <v>90.86997026575204</v>
+        <v>737.4480126286239</v>
       </c>
       <c r="F2" t="n">
-        <v>90.86997026575204</v>
+        <v>316.4176005823115</v>
       </c>
       <c r="G2" t="n">
-        <v>90.86997026575204</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>90.86997026575204</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1688317915614</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>1014.011766457887</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>1530.854701124212</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N2" t="n">
-        <v>1530.854701124212</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O2" t="n">
-        <v>2047.697635790537</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4363,19 +4363,19 @@
         <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>1695.912714533713</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>1695.912714533713</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W2" t="n">
-        <v>1312.152413668881</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X2" t="n">
-        <v>1312.152413668881</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y2" t="n">
-        <v>911.2157406169714</v>
+        <v>1552.036533222293</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736455</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936156</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>497.5713418949007</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L3" t="n">
-        <v>1014.414276561226</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M3" t="n">
-        <v>1014.414276561226</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="N3" t="n">
-        <v>1014.414276561226</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="O3" t="n">
-        <v>1531.257211227551</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P3" t="n">
-        <v>2048.100145893876</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4442,19 +4442,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>474.9689777942758</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C4" t="n">
-        <v>474.9689777942758</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D4" t="n">
-        <v>474.9689777942758</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E4" t="n">
-        <v>474.9689777942758</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198192</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4515,25 +4515,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1479.037327669598</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1239.4885886463</v>
       </c>
       <c r="U4" t="n">
-        <v>777.1526093285881</v>
+        <v>1239.4885886463</v>
       </c>
       <c r="V4" t="n">
-        <v>503.2668642681101</v>
+        <v>1239.4885886463</v>
       </c>
       <c r="W4" t="n">
-        <v>474.9689777942758</v>
+        <v>1239.4885886463</v>
       </c>
       <c r="X4" t="n">
-        <v>474.9689777942758</v>
+        <v>1239.4885886463</v>
       </c>
       <c r="Y4" t="n">
-        <v>474.9689777942758</v>
+        <v>1014.752890035065</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>876.4530309326549</v>
+        <v>860.6179604234998</v>
       </c>
       <c r="C5" t="n">
-        <v>466.328440245925</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="D5" t="n">
-        <v>456.1053011127053</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="E5" t="n">
-        <v>41.76508562960203</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F5" t="n">
-        <v>41.76508562960203</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
         <v>295.9505570973564</v>
@@ -4576,43 +4576,43 @@
         <v>295.9505570973564</v>
       </c>
       <c r="M5" t="n">
-        <v>692.8507596625946</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>692.8507596625946</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O5" t="n">
-        <v>1209.69369432892</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>2021.613367803418</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>2021.613367803418</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>2021.613367803418</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1671.775813139899</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1671.775813139899</v>
       </c>
       <c r="X5" t="n">
-        <v>1687.610883649054</v>
+        <v>1671.775813139899</v>
       </c>
       <c r="Y5" t="n">
-        <v>1286.674210597144</v>
+        <v>1270.839140087989</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>558.6080202959272</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>558.6080202959272</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1075.450954962252</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O6" t="n">
-        <v>1592.293889628578</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>315.5671578740656</v>
+        <v>531.403569141836</v>
       </c>
       <c r="C7" t="n">
-        <v>315.5671578740656</v>
+        <v>360.3101967035525</v>
       </c>
       <c r="D7" t="n">
-        <v>315.5671578740656</v>
+        <v>360.3101967035525</v>
       </c>
       <c r="E7" t="n">
-        <v>315.5671578740656</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="F7" t="n">
-        <v>315.5671578740656</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V7" t="n">
-        <v>503.2668642681101</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="W7" t="n">
-        <v>503.2668642681101</v>
+        <v>769.7474312821525</v>
       </c>
       <c r="X7" t="n">
-        <v>503.2668642681101</v>
+        <v>531.403569141836</v>
       </c>
       <c r="Y7" t="n">
-        <v>503.2668642681101</v>
+        <v>531.403569141836</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1020.035937023212</v>
+        <v>866.2298917994352</v>
       </c>
       <c r="C8" t="n">
-        <v>609.9113463364826</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="D8" t="n">
-        <v>609.9113463364826</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E8" t="n">
-        <v>195.5711308533793</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L8" t="n">
-        <v>1075.450954962252</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962252</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N8" t="n">
-        <v>1250.250340018485</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O8" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
         <v>2088.254281480102</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U8" t="n">
-        <v>1831.193789739612</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V8" t="n">
-        <v>1831.193789739612</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W8" t="n">
-        <v>1831.193789739612</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="X8" t="n">
-        <v>1831.193789739612</v>
+        <v>866.2298917994352</v>
       </c>
       <c r="Y8" t="n">
-        <v>1430.257116687702</v>
+        <v>866.2298917994352</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959272</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M9" t="n">
-        <v>1075.450954962252</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N9" t="n">
-        <v>1571.411346813777</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O9" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.1526093285881</v>
+        <v>529.4209365128291</v>
       </c>
       <c r="C10" t="n">
-        <v>777.1526093285881</v>
+        <v>529.4209365128291</v>
       </c>
       <c r="D10" t="n">
-        <v>777.1526093285881</v>
+        <v>369.9262918357392</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="V10" t="n">
-        <v>777.1526093285881</v>
+        <v>871.3377300465861</v>
       </c>
       <c r="W10" t="n">
-        <v>777.1526093285881</v>
+        <v>592.2680655554605</v>
       </c>
       <c r="X10" t="n">
-        <v>777.1526093285881</v>
+        <v>592.2680655554605</v>
       </c>
       <c r="Y10" t="n">
-        <v>777.1526093285881</v>
+        <v>529.4209365128291</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1575.990387702721</v>
+        <v>1178.167924955136</v>
       </c>
       <c r="C11" t="n">
-        <v>1165.865797015991</v>
+        <v>1178.167924955136</v>
       </c>
       <c r="D11" t="n">
-        <v>761.4018671090519</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="E11" t="n">
-        <v>761.4018671090519</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="F11" t="n">
-        <v>761.4018671090519</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G11" t="n">
         <v>352.673583001884</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>216.5644706858343</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L11" t="n">
-        <v>733.4074053521595</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M11" t="n">
-        <v>1250.250340018485</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N11" t="n">
-        <v>1250.250340018485</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O11" t="n">
-        <v>1250.250340018485</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P11" t="n">
-        <v>1767.09327468481</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="Q11" t="n">
         <v>2088.254281480102</v>
@@ -5068,25 +5068,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V11" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W11" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X11" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y11" t="n">
-        <v>1687.317608428192</v>
+        <v>1588.389104619625</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G12" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K12" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L12" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M12" t="n">
-        <v>1531.257211227551</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N12" t="n">
-        <v>2048.100145893876</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O12" t="n">
-        <v>2088.254281480102</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P12" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q12" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5156,16 +5156,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>777.1526093285881</v>
+        <v>201.259730306692</v>
       </c>
       <c r="C13" t="n">
-        <v>777.1526093285881</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D13" t="n">
-        <v>777.1526093285881</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E13" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F13" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G13" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5223,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S13" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T13" t="n">
-        <v>1059.950756782464</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U13" t="n">
-        <v>777.1526093285881</v>
+        <v>1180.258708392657</v>
       </c>
       <c r="V13" t="n">
-        <v>777.1526093285881</v>
+        <v>906.3729633321786</v>
       </c>
       <c r="W13" t="n">
-        <v>777.1526093285881</v>
+        <v>627.303298841053</v>
       </c>
       <c r="X13" t="n">
-        <v>777.1526093285881</v>
+        <v>388.9594367007364</v>
       </c>
       <c r="Y13" t="n">
-        <v>777.1526093285881</v>
+        <v>388.9594367007364</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>451.8896763163319</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="C14" t="n">
-        <v>41.76508562960203</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="D14" t="n">
-        <v>41.76508562960203</v>
+        <v>1198.671721703744</v>
       </c>
       <c r="E14" t="n">
-        <v>41.76508562960203</v>
+        <v>784.3315062206409</v>
       </c>
       <c r="F14" t="n">
-        <v>41.76508562960203</v>
+        <v>363.3010941743285</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960203</v>
+        <v>363.3010941743285</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960203</v>
+        <v>52.39259680204646</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K14" t="n">
-        <v>812.7934917636815</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L14" t="n">
-        <v>812.7934917636815</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M14" t="n">
-        <v>812.7934917636815</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N14" t="n">
-        <v>1250.250340018485</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O14" t="n">
-        <v>1250.250340018485</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P14" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q14" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R14" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U14" t="n">
-        <v>2047.45122772861</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V14" t="n">
-        <v>2047.45122772861</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="W14" t="n">
-        <v>1663.690926863779</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="X14" t="n">
-        <v>1263.047529032731</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="Y14" t="n">
-        <v>862.1108559808214</v>
+        <v>1603.135651610684</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D15" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E15" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G15" t="n">
-        <v>133.2608899736455</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936156</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
         <v>234.5779431922353</v>
@@ -5363,22 +5363,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L15" t="n">
-        <v>690.384199457534</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M15" t="n">
-        <v>704.723947463468</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N15" t="n">
-        <v>704.723947463468</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O15" t="n">
-        <v>1221.566882129793</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P15" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q15" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R15" t="n">
         <v>2088.254281480102</v>
@@ -5390,19 +5390,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U15" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V15" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X15" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y15" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5460,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S16" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T16" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U16" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V16" t="n">
-        <v>503.2668642681101</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W16" t="n">
-        <v>224.1971997769844</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X16" t="n">
-        <v>41.76508562960203</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.76508562960203</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>451.8896763163319</v>
+        <v>818.4386776939424</v>
       </c>
       <c r="C17" t="n">
-        <v>41.76508562960203</v>
+        <v>818.4386776939424</v>
       </c>
       <c r="D17" t="n">
-        <v>41.76508562960203</v>
+        <v>818.4386776939424</v>
       </c>
       <c r="E17" t="n">
-        <v>41.76508562960203</v>
+        <v>818.4386776939424</v>
       </c>
       <c r="F17" t="n">
-        <v>41.76508562960203</v>
+        <v>818.4386776939424</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960203</v>
+        <v>409.7103935867746</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960203</v>
+        <v>98.80189621449256</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960203</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959272</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.450954962252</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N17" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O17" t="n">
-        <v>1726.536628995245</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P17" t="n">
         <v>1726.536628995245</v>
@@ -5542,25 +5542,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V17" t="n">
-        <v>2047.45122772861</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="W17" t="n">
-        <v>1663.690926863779</v>
+        <v>1219.375350745852</v>
       </c>
       <c r="X17" t="n">
-        <v>1263.047529032731</v>
+        <v>1219.375350745852</v>
       </c>
       <c r="Y17" t="n">
-        <v>862.1108559808214</v>
+        <v>818.4386776939424</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G18" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>558.6080202959272</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M18" t="n">
-        <v>1075.450954962252</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N18" t="n">
-        <v>1592.293889628578</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O18" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P18" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q18" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R18" t="n">
         <v>2088.254281480102</v>
@@ -5630,16 +5630,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L19" t="n">
         <v>470.2970630371111</v>
@@ -5718,7 +5718,7 @@
         <v>257.5178240813579</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.80937927516271</v>
+        <v>1552.036533222293</v>
       </c>
       <c r="C20" t="n">
-        <v>73.80937927516271</v>
+        <v>1552.036533222293</v>
       </c>
       <c r="D20" t="n">
-        <v>73.80937927516271</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E20" t="n">
-        <v>73.80937927516271</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F20" t="n">
-        <v>41.76508562960203</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K20" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L20" t="n">
-        <v>558.6080202959272</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M20" t="n">
-        <v>1075.450954962252</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N20" t="n">
-        <v>1592.293889628578</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="O20" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P20" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q20" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R20" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T20" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U20" t="n">
-        <v>1608.987305686471</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V20" t="n">
-        <v>1259.149751022951</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W20" t="n">
-        <v>875.3894501581201</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X20" t="n">
-        <v>474.7460523270726</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.80937927516271</v>
+        <v>1552.036533222293</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I21" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>558.6080202959272</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M21" t="n">
-        <v>558.6080202959272</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N21" t="n">
-        <v>1075.450954962252</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O21" t="n">
-        <v>1221.566882129793</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P21" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q21" t="n">
         <v>2088.254281480102</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>675.2014307549252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C22" t="n">
-        <v>675.2014307549252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D22" t="n">
-        <v>675.2014307549252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E22" t="n">
-        <v>675.2014307549252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F22" t="n">
-        <v>675.2014307549252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G22" t="n">
-        <v>675.2014307549252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H22" t="n">
-        <v>675.2014307549252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I22" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J22" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K22" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L22" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M22" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N22" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O22" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P22" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q22" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R22" t="n">
-        <v>2002.981563155501</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S22" t="n">
-        <v>1816.589795035411</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T22" t="n">
-        <v>1577.041056012114</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U22" t="n">
-        <v>1294.242908558238</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V22" t="n">
-        <v>1020.35716349776</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W22" t="n">
-        <v>741.2874990066341</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X22" t="n">
-        <v>675.2014307549252</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y22" t="n">
-        <v>675.2014307549252</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1287.260303845748</v>
+        <v>1225.22700482164</v>
       </c>
       <c r="C23" t="n">
-        <v>877.1357131590178</v>
+        <v>1225.22700482164</v>
       </c>
       <c r="D23" t="n">
-        <v>877.1357131590178</v>
+        <v>1225.22700482164</v>
       </c>
       <c r="E23" t="n">
-        <v>462.7954976759145</v>
+        <v>1225.22700482164</v>
       </c>
       <c r="F23" t="n">
-        <v>41.76508562960203</v>
+        <v>804.1965927753274</v>
       </c>
       <c r="G23" t="n">
-        <v>41.76508562960203</v>
+        <v>395.4683086681596</v>
       </c>
       <c r="H23" t="n">
-        <v>41.76508562960203</v>
+        <v>84.55981129587758</v>
       </c>
       <c r="I23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J23" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K23" t="n">
-        <v>812.7934917636815</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L23" t="n">
-        <v>1329.636426430007</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M23" t="n">
-        <v>1846.479361096332</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N23" t="n">
-        <v>1846.479361096332</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O23" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P23" t="n">
         <v>2088.254281480102</v>
@@ -6022,19 +6022,19 @@
         <v>1866.047797426961</v>
       </c>
       <c r="U23" t="n">
-        <v>1866.047797426961</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V23" t="n">
-        <v>1866.047797426961</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W23" t="n">
-        <v>1697.481483510237</v>
+        <v>1225.22700482164</v>
       </c>
       <c r="X23" t="n">
-        <v>1697.481483510237</v>
+        <v>1225.22700482164</v>
       </c>
       <c r="Y23" t="n">
-        <v>1697.481483510237</v>
+        <v>1225.22700482164</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H24" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I24" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J24" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K24" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L24" t="n">
-        <v>558.6080202959272</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M24" t="n">
-        <v>1075.450954962252</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="N24" t="n">
-        <v>1592.293889628578</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O24" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P24" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q24" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R24" t="n">
         <v>2088.254281480102</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1158.40534984338</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C25" t="n">
-        <v>987.3119774050965</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D25" t="n">
-        <v>875.7132311282514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E25" t="n">
-        <v>875.7132311282514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F25" t="n">
-        <v>875.7132311282514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G25" t="n">
-        <v>708.4628400537948</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H25" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I25" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J25" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K25" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L25" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M25" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N25" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O25" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P25" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q25" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R25" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S25" t="n">
-        <v>2088.254281480102</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T25" t="n">
-        <v>2088.254281480102</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U25" t="n">
-        <v>2088.254281480102</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V25" t="n">
-        <v>2088.254281480102</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W25" t="n">
-        <v>1809.184616988976</v>
+        <v>309.4699181015847</v>
       </c>
       <c r="X25" t="n">
-        <v>1570.84075484866</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="Y25" t="n">
-        <v>1346.105056237424</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1270.693821706375</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="C26" t="n">
-        <v>860.5692310196448</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="D26" t="n">
-        <v>456.1053011127053</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="E26" t="n">
-        <v>41.76508562960203</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="F26" t="n">
-        <v>41.76508562960203</v>
+        <v>702.8382637707402</v>
       </c>
       <c r="G26" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K26" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L26" t="n">
-        <v>558.6080202959272</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M26" t="n">
-        <v>1075.450954962252</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N26" t="n">
-        <v>1592.293889628578</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O26" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P26" t="n">
         <v>2088.254281480102</v>
@@ -6253,25 +6253,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S26" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T26" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U26" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V26" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W26" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="X26" t="n">
-        <v>2081.851674422774</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="Y26" t="n">
-        <v>1680.915001370864</v>
+        <v>1123.868675817053</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G27" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J27" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K27" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L27" t="n">
-        <v>558.6080202959272</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M27" t="n">
-        <v>675.164428100838</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N27" t="n">
-        <v>1192.007362767163</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O27" t="n">
-        <v>1708.850297433488</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P27" t="n">
-        <v>1708.850297433488</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q27" t="n">
         <v>2058.694762117472</v>
@@ -6341,16 +6341,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C28" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D28" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E28" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F28" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G28" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H28" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L28" t="n">
         <v>470.2970630371111</v>
@@ -6414,22 +6414,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T28" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U28" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V28" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W28" t="n">
-        <v>1571.163982250452</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X28" t="n">
-        <v>1543.534340936018</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y28" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>856.3536062232714</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="C29" t="n">
-        <v>446.2290155365415</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="D29" t="n">
-        <v>41.76508562960203</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="E29" t="n">
-        <v>41.76508562960203</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="F29" t="n">
-        <v>41.76508562960203</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960203</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J29" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K29" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L29" t="n">
-        <v>1075.450954962252</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M29" t="n">
-        <v>1075.450954962252</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N29" t="n">
-        <v>1571.411346813777</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O29" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P29" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q29" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R29" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S29" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T29" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U29" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V29" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W29" t="n">
-        <v>2068.154856770718</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X29" t="n">
-        <v>1667.511458939671</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="Y29" t="n">
-        <v>1266.574785887761</v>
+        <v>339.4649771211738</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J30" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K30" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L30" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M30" t="n">
-        <v>558.6080202959272</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N30" t="n">
-        <v>1075.450954962252</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O30" t="n">
-        <v>1592.293889628578</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P30" t="n">
         <v>1708.850297433488</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1109.57853079593</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C31" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D31" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E31" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F31" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G31" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H31" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J31" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K31" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L31" t="n">
         <v>470.2970630371111</v>
@@ -6651,22 +6651,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T31" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U31" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V31" t="n">
-        <v>1297.278237189974</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W31" t="n">
-        <v>1297.278237189974</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X31" t="n">
-        <v>1297.278237189974</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y31" t="n">
-        <v>1297.278237189974</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>927.5521493210456</v>
+        <v>1542.752026609714</v>
       </c>
       <c r="C32" t="n">
-        <v>517.4275586343157</v>
+        <v>1132.627435922984</v>
       </c>
       <c r="D32" t="n">
-        <v>517.4275586343157</v>
+        <v>1132.627435922984</v>
       </c>
       <c r="E32" t="n">
-        <v>517.4275586343157</v>
+        <v>1132.627435922984</v>
       </c>
       <c r="F32" t="n">
-        <v>517.4275586343157</v>
+        <v>711.5970238766713</v>
       </c>
       <c r="G32" t="n">
-        <v>108.6992745271478</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K32" t="n">
-        <v>41.76508562960203</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L32" t="n">
-        <v>558.6080202959272</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M32" t="n">
-        <v>1075.450954962252</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N32" t="n">
-        <v>1592.293889628578</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O32" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P32" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q32" t="n">
         <v>2047.697635790537</v>
@@ -6727,25 +6727,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S32" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T32" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U32" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V32" t="n">
-        <v>1738.416726816582</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W32" t="n">
-        <v>1738.416726816582</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X32" t="n">
-        <v>1337.773328985535</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y32" t="n">
-        <v>1337.773328985535</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C33" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D33" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E33" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F33" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G33" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J33" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K33" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L33" t="n">
-        <v>751.4208778585604</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M33" t="n">
-        <v>1192.007362767163</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="N33" t="n">
-        <v>1192.007362767163</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O33" t="n">
-        <v>1192.007362767163</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P33" t="n">
-        <v>1708.850297433488</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q33" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R33" t="n">
         <v>2088.254281480102</v>
@@ -6815,16 +6815,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V33" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W33" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X33" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y33" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>729.9487572975349</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C34" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D34" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E34" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F34" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G34" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H34" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I34" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J34" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K34" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L34" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M34" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N34" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O34" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P34" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T34" t="n">
-        <v>2088.254281480102</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U34" t="n">
-        <v>1933.683433994735</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V34" t="n">
-        <v>1659.797688934257</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W34" t="n">
-        <v>1380.728024443131</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X34" t="n">
-        <v>1142.384162302815</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y34" t="n">
-        <v>917.6484636915793</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>856.3536062232714</v>
+        <v>561.671461174315</v>
       </c>
       <c r="C35" t="n">
-        <v>446.2290155365415</v>
+        <v>561.671461174315</v>
       </c>
       <c r="D35" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="E35" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="F35" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J35" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K35" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L35" t="n">
-        <v>558.6080202959272</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M35" t="n">
-        <v>1075.450954962252</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="N35" t="n">
-        <v>1592.293889628578</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="O35" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P35" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q35" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R35" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S35" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T35" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U35" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V35" t="n">
-        <v>2068.154856770718</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W35" t="n">
-        <v>2068.154856770718</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="X35" t="n">
-        <v>1667.511458939671</v>
+        <v>561.671461174315</v>
       </c>
       <c r="Y35" t="n">
-        <v>1266.574785887761</v>
+        <v>561.671461174315</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C36" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D36" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E36" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F36" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G36" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J36" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K36" t="n">
-        <v>234.5779431922353</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L36" t="n">
-        <v>675.164428100838</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M36" t="n">
-        <v>675.164428100838</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="N36" t="n">
-        <v>1192.007362767163</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="O36" t="n">
-        <v>1192.007362767163</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P36" t="n">
-        <v>1708.850297433488</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q36" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R36" t="n">
         <v>2088.254281480102</v>
@@ -7052,16 +7052,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V36" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W36" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X36" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y36" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1014.752890035065</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C37" t="n">
-        <v>843.6595175967811</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D37" t="n">
-        <v>684.1648729196911</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E37" t="n">
-        <v>523.2540577880106</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F37" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G37" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J37" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K37" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L37" t="n">
         <v>470.2970630371111</v>
@@ -7125,22 +7125,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T37" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U37" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V37" t="n">
-        <v>1297.278237189974</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W37" t="n">
-        <v>1297.278237189974</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X37" t="n">
-        <v>1297.278237189974</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y37" t="n">
-        <v>1072.542538578738</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>474.4527771062102</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C38" t="n">
-        <v>474.4527771062102</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D38" t="n">
-        <v>474.4527771062102</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E38" t="n">
-        <v>474.4527771062102</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F38" t="n">
-        <v>474.4527771062102</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G38" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K38" t="n">
-        <v>41.76508562960203</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L38" t="n">
-        <v>176.0078249962694</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M38" t="n">
-        <v>692.8507596625946</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N38" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O38" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P38" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q38" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R38" t="n">
         <v>2088.254281480102</v>
@@ -7204,22 +7204,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T38" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U38" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V38" t="n">
-        <v>1259.149751022951</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W38" t="n">
-        <v>875.3894501581201</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X38" t="n">
-        <v>875.3894501581201</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y38" t="n">
-        <v>474.4527771062102</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="39">
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C39" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D39" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E39" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F39" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G39" t="n">
-        <v>133.2608899736455</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936156</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J39" t="n">
-        <v>41.76508562960203</v>
+        <v>81.91922121582792</v>
       </c>
       <c r="K39" t="n">
-        <v>41.76508562960203</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L39" t="n">
-        <v>537.7254774811263</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M39" t="n">
-        <v>1054.568412147451</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N39" t="n">
-        <v>1571.411346813777</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O39" t="n">
         <v>1571.411346813777</v>
@@ -7286,19 +7286,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U39" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V39" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W39" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X39" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y39" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>693.3871153509499</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C40" t="n">
-        <v>522.2937429126664</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D40" t="n">
-        <v>362.7990982355764</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E40" t="n">
-        <v>201.8882831038959</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F40" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G40" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H40" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7356,28 +7356,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R40" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S40" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T40" t="n">
-        <v>1246.342524902554</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U40" t="n">
-        <v>1246.342524902554</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="V40" t="n">
-        <v>972.4567798420755</v>
+        <v>1057.729498166676</v>
       </c>
       <c r="W40" t="n">
-        <v>693.3871153509499</v>
+        <v>778.6598336755503</v>
       </c>
       <c r="X40" t="n">
-        <v>693.3871153509499</v>
+        <v>625.2938630731653</v>
       </c>
       <c r="Y40" t="n">
-        <v>693.3871153509499</v>
+        <v>400.5581644619299</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C41" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D41" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E41" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F41" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G41" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J41" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K41" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L41" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M41" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N41" t="n">
-        <v>1075.450954962252</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O41" t="n">
-        <v>1592.293889628578</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P41" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q41" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R41" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S41" t="n">
-        <v>2088.254281480102</v>
+        <v>1987.1641917054</v>
       </c>
       <c r="T41" t="n">
-        <v>2088.254281480102</v>
+        <v>1987.1641917054</v>
       </c>
       <c r="U41" t="n">
-        <v>1948.235134414162</v>
+        <v>1987.1641917054</v>
       </c>
       <c r="V41" t="n">
-        <v>1948.235134414162</v>
+        <v>1637.32663704188</v>
       </c>
       <c r="W41" t="n">
-        <v>1564.474833549331</v>
+        <v>1253.566336177049</v>
       </c>
       <c r="X41" t="n">
-        <v>1163.831435718284</v>
+        <v>852.9229383460014</v>
       </c>
       <c r="Y41" t="n">
-        <v>762.8947626663735</v>
+        <v>451.9862652940915</v>
       </c>
     </row>
     <row r="42">
@@ -7484,28 +7484,28 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J42" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K42" t="n">
-        <v>187.8810127971428</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L42" t="n">
-        <v>187.8810127971428</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M42" t="n">
-        <v>704.723947463468</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N42" t="n">
         <v>1221.566882129793</v>
       </c>
       <c r="O42" t="n">
-        <v>1738.409816796118</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P42" t="n">
         <v>1738.409816796118</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>718.3500295363415</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C43" t="n">
-        <v>718.3500295363415</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D43" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E43" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F43" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G43" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H43" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I43" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J43" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K43" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L43" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M43" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N43" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P43" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q43" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R43" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S43" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T43" t="n">
-        <v>2017.183147293373</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U43" t="n">
-        <v>1734.384999839497</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V43" t="n">
-        <v>1460.499254779019</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W43" t="n">
-        <v>1181.429590287893</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X43" t="n">
-        <v>943.0857281475768</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y43" t="n">
-        <v>718.3500295363415</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1132.44994189861</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C44" t="n">
-        <v>1132.44994189861</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="D44" t="n">
-        <v>1132.44994189861</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="E44" t="n">
-        <v>1132.44994189861</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="F44" t="n">
-        <v>847.7536297919787</v>
+        <v>846.8780990825703</v>
       </c>
       <c r="G44" t="n">
-        <v>439.0253456848109</v>
+        <v>438.1498149754025</v>
       </c>
       <c r="H44" t="n">
         <v>128.1168483125289</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J44" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K44" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L44" t="n">
-        <v>41.76508562960203</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M44" t="n">
-        <v>558.6080202959272</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N44" t="n">
-        <v>692.8507596625946</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O44" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P44" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q44" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R44" t="n">
         <v>2088.254281480102</v>
@@ -7678,22 +7678,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T44" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U44" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V44" t="n">
-        <v>1516.210242763441</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W44" t="n">
-        <v>1132.44994189861</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X44" t="n">
-        <v>1132.44994189861</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y44" t="n">
-        <v>1132.44994189861</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="45">
@@ -7721,10 +7721,10 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J45" t="n">
         <v>234.5779431922353</v>
@@ -7733,22 +7733,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L45" t="n">
-        <v>690.384199457534</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M45" t="n">
-        <v>1192.007362767163</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N45" t="n">
-        <v>1192.007362767163</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O45" t="n">
-        <v>1192.007362767163</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P45" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q45" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R45" t="n">
         <v>2088.254281480102</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>201.259730306692</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C46" t="n">
-        <v>201.259730306692</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L46" t="n">
         <v>470.2970630371111</v>
@@ -7833,25 +7833,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S46" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T46" t="n">
-        <v>1331.615243227154</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U46" t="n">
-        <v>1048.817095773278</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V46" t="n">
-        <v>774.9313507128002</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W46" t="n">
-        <v>495.8616862216745</v>
+        <v>309.4699181015847</v>
       </c>
       <c r="X46" t="n">
-        <v>257.5178240813579</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="Y46" t="n">
-        <v>257.5178240813579</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>549.1401736751963</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700255</v>
+        <v>502.7883324430332</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>67.39425105392507</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8224,22 +8224,22 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>494.1995199774881</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958086</v>
+        <v>535.0653799235644</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,28 +8294,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>525.3716274158282</v>
+        <v>560.9496989519245</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>337.5073157537831</v>
       </c>
       <c r="N8" t="n">
-        <v>269.477326166955</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808745</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M9" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>554.1634861730674</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>265.7014250835527</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L11" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N11" t="n">
         <v>92.91229075661933</v>
@@ -8707,10 +8707,10 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P11" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>334.2508956958897</v>
       </c>
       <c r="R11" t="n">
         <v>87.31214281472352</v>
@@ -8768,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>98.31121191537929</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>560.9496989519245</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,28 +8929,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L14" t="n">
-        <v>95.48539806284482</v>
+        <v>496.3946935832877</v>
       </c>
       <c r="M14" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
-        <v>534.7878950544003</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O14" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P14" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q14" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,25 +9011,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M15" t="n">
-        <v>72.04887768380529</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q15" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,22 +9166,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328703</v>
+        <v>231.0841246958424</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O17" t="n">
-        <v>228.7885022587805</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q17" t="n">
         <v>414.4388617681339</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>578.1780941808745</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M18" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>558.7215717793174</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L20" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M20" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N20" t="n">
-        <v>614.9758611266448</v>
+        <v>534.7878950544006</v>
       </c>
       <c r="O20" t="n">
-        <v>553.1935596277623</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P20" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q20" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M21" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>205.3433246237786</v>
+        <v>425.6143201009271</v>
       </c>
       <c r="P21" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9637,25 +9637,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K23" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L23" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M23" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N23" t="n">
-        <v>92.91229075661933</v>
+        <v>593.882383535937</v>
       </c>
       <c r="O23" t="n">
-        <v>337.4068669225205</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P23" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q23" t="n">
         <v>90.03380439915205</v>
@@ -9716,22 +9716,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>579.6278541084429</v>
+        <v>502.6011371814503</v>
       </c>
       <c r="N24" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O24" t="n">
-        <v>205.3433246237786</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9740,7 +9740,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,25 +9874,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L26" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M26" t="n">
-        <v>615.3537948270709</v>
+        <v>337.5073157537831</v>
       </c>
       <c r="N26" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
-        <v>594.1598684051006</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P26" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q26" t="n">
         <v>90.03380439915205</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M27" t="n">
-        <v>175.2980289959031</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>579.8150493700255</v>
+        <v>395.7562197346342</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L29" t="n">
-        <v>617.5489684328703</v>
+        <v>496.3946935832877</v>
       </c>
       <c r="M29" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N29" t="n">
-        <v>593.8823835359368</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O29" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P29" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q29" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,25 +10190,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P30" t="n">
-        <v>171.9933802602894</v>
+        <v>560.949698951924</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
@@ -10351,25 +10351,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K32" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L32" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M32" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
-        <v>614.9758611266448</v>
+        <v>228.5110173896169</v>
       </c>
       <c r="O32" t="n">
-        <v>553.1935596277623</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P32" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q32" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10430,13 +10430,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M33" t="n">
-        <v>502.6011371814505</v>
+        <v>72.04887768380563</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
@@ -10445,13 +10445,13 @@
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L35" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270709</v>
+        <v>535.1658287548266</v>
       </c>
       <c r="N35" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O35" t="n">
-        <v>553.1935596277623</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P35" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q35" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>501.1513772538821</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>575.2569637637754</v>
+        <v>262.4384495236163</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P36" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,28 +10825,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K38" t="n">
-        <v>89.13638967321712</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L38" t="n">
-        <v>231.0841246958421</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M38" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N38" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O38" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P38" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,25 +10901,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>91.92897171537967</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>557.0846165901664</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M39" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P39" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M41" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N41" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O41" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P41" t="n">
-        <v>553.6531472828633</v>
+        <v>535.5249675786654</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,22 +11141,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>203.417628408394</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M42" t="n">
-        <v>579.6278541084429</v>
+        <v>266.8093398682832</v>
       </c>
       <c r="N42" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M44" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N44" t="n">
-        <v>228.5110173896167</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O44" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P44" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,25 +11381,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M45" t="n">
-        <v>564.2543476875378</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>425.6143201009266</v>
       </c>
       <c r="P45" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>132.7350114629137</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>36.87440926630906</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22603,13 +22603,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -22707,16 +22707,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22725,7 +22725,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,25 +22755,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>177.7424535451981</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>248.2640602371185</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22789,16 +22789,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>390.2983828659826</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>67.95375991392319</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -22843,13 +22843,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>9.519934180864823</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>157.807801721008</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23001,13 +23001,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23032,7 +23032,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>264.5521231543098</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -23080,16 +23080,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>301.512846318869</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23184,22 +23184,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>23.12472639190918</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23235,19 +23235,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>160.2696838729179</v>
       </c>
     </row>
     <row r="11">
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>295.9050193496289</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,10 +23269,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
@@ -23326,7 +23326,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>255.9734648959687</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>23.12472639190918</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>77.50179529900876</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>74.96700899537761</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>214.0948636091082</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.3526305130049</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>194.7158398879886</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -23746,13 +23746,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>29.02180257705596</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
@@ -23791,13 +23791,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>305.9441559029074</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.893130557884632</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="20">
@@ -23974,16 +23974,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>136.9084800113235</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>385.0962572167442</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>193.4209809967736</v>
       </c>
       <c r="X22" t="n">
-        <v>170.5352159497217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>43.12146664648479</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,13 +24262,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>213.042047078627</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>47.41693941624246</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24378,10 +24378,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24414,16 +24414,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>193.4209809967736</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>57.97796730492848</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>390.2983828659825</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
@@ -24697,7 +24697,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>13.0765198219031</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>360.0242673938934</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>21.30520108346107</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="32">
@@ -24928,13 +24928,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>49.30679480005671</v>
       </c>
       <c r="H32" t="n">
-        <v>241.5345653899888</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
@@ -24976,13 +24976,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25128,10 +25128,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>126.945026968824</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>278.9996362732609</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -25171,10 +25171,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>326.4407486545944</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>128.6109572718669</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25365,22 +25365,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>194.7158398879886</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>17.77593127592968</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>284.0795991028132</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -25444,22 +25444,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>119.6454345676808</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
@@ -25569,7 +25569,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>84.12811262255229</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25645,7 +25645,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>33.84907557688456</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>115.8709312278049</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25839,7 +25839,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>166.7928287882034</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -25876,13 +25876,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>134.9707589402844</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.8667754023143175</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.1271964931847</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -26073,7 +26073,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>193.4209809967736</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>552470.7001526733</v>
+        <v>552470.7001526735</v>
       </c>
     </row>
     <row r="3">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>552470.7001526733</v>
+        <v>552470.7001526734</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>552470.7001526735</v>
+        <v>552470.7001526734</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>552470.7001526735</v>
+        <v>552470.7001526733</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>552470.7001526733</v>
+        <v>552470.7001526734</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>552470.7001526735</v>
+        <v>552470.7001526733</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>552470.7001526733</v>
+        <v>552470.7001526735</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>552470.7001526733</v>
+        <v>552470.7001526734</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>552470.7001526733</v>
+        <v>552470.7001526735</v>
       </c>
     </row>
     <row r="15">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>161720.1620581894</v>
+        <v>161720.1620581895</v>
       </c>
       <c r="C2" t="n">
-        <v>161720.1620581894</v>
+        <v>161720.1620581895</v>
       </c>
       <c r="D2" t="n">
         <v>161720.1620581895</v>
       </c>
       <c r="E2" t="n">
-        <v>161720.1620581894</v>
+        <v>161720.1620581895</v>
       </c>
       <c r="F2" t="n">
-        <v>161720.1620581894</v>
+        <v>161720.1620581895</v>
       </c>
       <c r="G2" t="n">
         <v>161720.1620581895</v>
       </c>
       <c r="H2" t="n">
-        <v>161720.1620581894</v>
+        <v>161720.1620581895</v>
       </c>
       <c r="I2" t="n">
-        <v>161720.1620581894</v>
+        <v>161720.1620581895</v>
       </c>
       <c r="J2" t="n">
         <v>161720.1620581894</v>
@@ -26343,19 +26343,19 @@
         <v>161720.1620581895</v>
       </c>
       <c r="L2" t="n">
-        <v>161720.1620581894</v>
+        <v>161720.1620581895</v>
       </c>
       <c r="M2" t="n">
-        <v>161720.1620581894</v>
+        <v>161720.1620581895</v>
       </c>
       <c r="N2" t="n">
-        <v>161720.1620581894</v>
+        <v>161720.1620581895</v>
       </c>
       <c r="O2" t="n">
-        <v>161720.1620581894</v>
+        <v>161720.1620581895</v>
       </c>
       <c r="P2" t="n">
-        <v>161720.1620581894</v>
+        <v>161720.1620581895</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.509893114</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26435,13 +26435,13 @@
         <v>48718.21749193841</v>
       </c>
       <c r="H4" t="n">
+        <v>48718.21749193842</v>
+      </c>
+      <c r="I4" t="n">
         <v>48718.21749193841</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>48718.21749193842</v>
-      </c>
-      <c r="J4" t="n">
-        <v>48718.21749193841</v>
       </c>
       <c r="K4" t="n">
         <v>48718.21749193841</v>
@@ -26453,7 +26453,7 @@
         <v>48718.21749193841</v>
       </c>
       <c r="N4" t="n">
-        <v>48718.21749193841</v>
+        <v>48718.21749193842</v>
       </c>
       <c r="O4" t="n">
         <v>48718.21749193841</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-127322.6304053606</v>
+        <v>-128000.1592647546</v>
       </c>
       <c r="C6" t="n">
-        <v>47632.87948775347</v>
+        <v>46955.35062835945</v>
       </c>
       <c r="D6" t="n">
-        <v>47632.8794877535</v>
+        <v>46955.35062835945</v>
       </c>
       <c r="E6" t="n">
-        <v>81260.47948775347</v>
+        <v>80582.95062835944</v>
       </c>
       <c r="F6" t="n">
-        <v>81260.47948775347</v>
+        <v>80582.95062835944</v>
       </c>
       <c r="G6" t="n">
-        <v>81260.4794877535</v>
+        <v>80582.95062835944</v>
       </c>
       <c r="H6" t="n">
-        <v>81260.47948775347</v>
+        <v>80582.9506283595</v>
       </c>
       <c r="I6" t="n">
-        <v>81260.47948775347</v>
+        <v>80582.95062835947</v>
       </c>
       <c r="J6" t="n">
-        <v>-55334.32131814148</v>
+        <v>-56011.85017753557</v>
       </c>
       <c r="K6" t="n">
-        <v>81260.4794877535</v>
+        <v>80582.95062835944</v>
       </c>
       <c r="L6" t="n">
-        <v>81260.47948775347</v>
+        <v>80582.95062835944</v>
       </c>
       <c r="M6" t="n">
-        <v>81260.47948775347</v>
+        <v>80582.95062835944</v>
       </c>
       <c r="N6" t="n">
-        <v>81260.47948775344</v>
+        <v>80582.95062835947</v>
       </c>
       <c r="O6" t="n">
-        <v>81260.47948775344</v>
+        <v>80582.95062835947</v>
       </c>
       <c r="P6" t="n">
-        <v>81260.47948775342</v>
+        <v>80582.95062835947</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="H4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="I4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>460.0037840019792</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700254</v>
+        <v>445.0368534430332</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.70163254908636</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34944,22 +34944,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>400.9092955204426</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700254</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>471.1119924130245</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="N8" t="n">
-        <v>176.5650354103356</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>176.5650354103356</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L11" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35427,10 +35427,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>40.55973291537929</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>441.875604297781</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P14" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M15" t="n">
-        <v>14.48459394538786</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q15" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700254</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O17" t="n">
-        <v>135.5987266329973</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q17" t="n">
         <v>324.4050573689818</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L20" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M20" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>522.0635703700254</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="O20" t="n">
-        <v>460.0037840019792</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>147.5918456237786</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="P21" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L23" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="O23" t="n">
-        <v>244.2170912967374</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>522.0635703700254</v>
+        <v>445.0368534430329</v>
       </c>
       <c r="N24" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O24" t="n">
-        <v>147.5918456237786</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L26" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M26" t="n">
-        <v>522.0635703700254</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="N26" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M27" t="n">
-        <v>117.7337452574857</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>522.0635703700254</v>
+        <v>338.0047407346341</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>29.85810036629282</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L29" t="n">
-        <v>522.0635703700254</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P30" t="n">
-        <v>117.7337452574857</v>
+        <v>506.6900639491203</v>
       </c>
       <c r="Q30" t="n">
         <v>353.3782471555388</v>
@@ -37071,25 +37071,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L32" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>522.0635703700254</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="O32" t="n">
-        <v>460.0037840019792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
         <v>40.9663087773382</v>
@@ -37150,13 +37150,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M33" t="n">
-        <v>445.0368534430331</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q33" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L35" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M35" t="n">
-        <v>522.0635703700254</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="N35" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>460.0037840019792</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>445.0368534430331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>522.0635703700254</v>
+        <v>209.2450561298663</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P36" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q36" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="L38" t="n">
-        <v>135.5987266329973</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M38" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N38" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O38" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>40.55973291537967</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M39" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P39" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M41" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O41" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>460.0037840019792</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>147.5918456237786</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M42" t="n">
-        <v>522.0635703700254</v>
+        <v>209.2450561298658</v>
       </c>
       <c r="N42" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M44" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N44" t="n">
-        <v>135.5987266329973</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O44" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,25 +38101,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M45" t="n">
-        <v>506.6900639491204</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="P45" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
